--- a/Robotics/Homework3/HitCounts.xlsx
+++ b/Robotics/Homework3/HitCounts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>1.0, 1.0, 1.0</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Tries to close the gap gradually (e-0)</t>
+  </si>
+  <si>
+    <t>30 iterations</t>
+  </si>
+  <si>
+    <t>10 iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 iteration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 iteration </t>
   </si>
 </sst>
 </file>
@@ -377,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +406,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
@@ -551,6 +571,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
@@ -568,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>7</v>
       </c>
@@ -579,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>3</v>
       </c>
@@ -587,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2</v>
       </c>
@@ -595,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5</v>
       </c>
@@ -603,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>4</v>
       </c>
@@ -611,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>5</v>
       </c>
@@ -625,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2</v>
       </c>
@@ -636,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>6</v>
       </c>
@@ -644,12 +672,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
         <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Robotics/Homework3/HitCounts.xlsx
+++ b/Robotics/Homework3/HitCounts.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>1.0, 1.0, 1.0</t>
   </si>
@@ -72,6 +73,27 @@
   </si>
   <si>
     <t xml:space="preserve">500 iteration </t>
+  </si>
+  <si>
+    <t>60 iterations</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>1.0,1.00,10.00</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -391,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -737,4 +759,227 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C6:C15)</f>
+        <v>7.7</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D6:D15)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(G6:G15)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(H6:H15)</f>
+        <v>5.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>